--- a/docs/Extension-UKCore-NominatedPharmacy.xlsx
+++ b/docs/Extension-UKCore-NominatedPharmacy.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$34</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="166">
   <si>
     <t>Path</t>
   </si>
@@ -243,6 +243,295 @@
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
+  </si>
+  <si>
+    <t>Extension.value[x].id</t>
+  </si>
+  <si>
+    <t>Extension.value[x].extension</t>
+  </si>
+  <si>
+    <t>Extension.value[x].reference</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Extension.value[x].type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Extension.value[x].identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Extension.value[x].identifier.id</t>
+  </si>
+  <si>
+    <t>Extension.value[x].identifier.extension</t>
+  </si>
+  <si>
+    <t>Extension.value[x].identifier.use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Extension.value[x].identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>Extension.value[x].identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>Extension.value[x].identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>Extension.value[x].identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>Extension.value[x].identifier.assigner</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>Extension.value[x].identifier.assigner.id</t>
+  </si>
+  <si>
+    <t>Extension.value[x].identifier.assigner.extension</t>
+  </si>
+  <si>
+    <t>Extension.value[x].identifier.assigner.reference</t>
+  </si>
+  <si>
+    <t>Extension.value[x].identifier.assigner.type</t>
+  </si>
+  <si>
+    <t>Extension.value[x].identifier.assigner.identifier</t>
+  </si>
+  <si>
+    <t>Extension.value[x].identifier.assigner.identifier.id</t>
+  </si>
+  <si>
+    <t>Extension.value[x].identifier.assigner.identifier.extension</t>
+  </si>
+  <si>
+    <t>Extension.value[x].identifier.assigner.identifier.use</t>
+  </si>
+  <si>
+    <t>Extension.value[x].identifier.assigner.identifier.type</t>
+  </si>
+  <si>
+    <t>Extension.value[x].identifier.assigner.identifier.system</t>
+  </si>
+  <si>
+    <t>Extension.value[x].identifier.assigner.identifier.value</t>
+  </si>
+  <si>
+    <t>Extension.value[x].identifier.assigner.identifier.period</t>
+  </si>
+  <si>
+    <t>Extension.value[x].identifier.assigner.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Extension.value[x].identifier.assigner.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
+    <t>Extension.value[x].display</t>
   </si>
 </sst>
 </file>
@@ -391,7 +680,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AJ34"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -400,7 +689,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.00390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.04296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -410,7 +699,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="43.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="49.12890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -423,19 +712,19 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="17.07421875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="44.39453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="19.359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="99.6875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1052,8 +1341,2864 @@
         <v>67</v>
       </c>
     </row>
+    <row r="7" hidden="true">
+      <c r="A7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" hidden="true">
+      <c r="A8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" hidden="true">
+      <c r="A9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" hidden="true">
+      <c r="A10" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" hidden="true">
+      <c r="A11" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P11" s="2"/>
+      <c r="Q11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" hidden="true">
+      <c r="A12" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="Q12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" hidden="true">
+      <c r="A14" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" hidden="true">
+      <c r="A15" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" hidden="true">
+      <c r="A16" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" hidden="true">
+      <c r="A17" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
+      <c r="A30" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" hidden="true">
+      <c r="A31" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ6">
+  <autoFilter ref="A1:AJ34">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -1063,7 +4208,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI5">
+  <conditionalFormatting sqref="A2:AI33">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/Extension-UKCore-NominatedPharmacy.xlsx
+++ b/docs/Extension-UKCore-NominatedPharmacy.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$20</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="151">
   <si>
     <t>Path</t>
   </si>
@@ -473,50 +473,7 @@
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
-    <t>Extension.value[x].identifier.assigner.id</t>
-  </si>
-  <si>
-    <t>Extension.value[x].identifier.assigner.extension</t>
-  </si>
-  <si>
-    <t>Extension.value[x].identifier.assigner.reference</t>
-  </si>
-  <si>
-    <t>Extension.value[x].identifier.assigner.type</t>
-  </si>
-  <si>
-    <t>Extension.value[x].identifier.assigner.identifier</t>
-  </si>
-  <si>
-    <t>Extension.value[x].identifier.assigner.identifier.id</t>
-  </si>
-  <si>
-    <t>Extension.value[x].identifier.assigner.identifier.extension</t>
-  </si>
-  <si>
-    <t>Extension.value[x].identifier.assigner.identifier.use</t>
-  </si>
-  <si>
-    <t>Extension.value[x].identifier.assigner.identifier.type</t>
-  </si>
-  <si>
-    <t>Extension.value[x].identifier.assigner.identifier.system</t>
-  </si>
-  <si>
-    <t>Extension.value[x].identifier.assigner.identifier.value</t>
-  </si>
-  <si>
-    <t>Extension.value[x].identifier.assigner.identifier.period</t>
-  </si>
-  <si>
-    <t>Extension.value[x].identifier.assigner.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Extension.value[x].identifier.assigner.display</t>
+    <t>Extension.value[x].display</t>
   </si>
   <si>
     <t>Text alternative for the resource</t>
@@ -529,9 +486,6 @@
   </si>
   <si>
     <t>Reference.display</t>
-  </si>
-  <si>
-    <t>Extension.value[x].display</t>
   </si>
 </sst>
 </file>
@@ -680,7 +634,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ34"/>
+  <dimension ref="A1:AJ20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -689,7 +643,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.04296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.41015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2689,18 +2643,20 @@
         <v>37</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>46</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>47</v>
+        <v>147</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>37</v>
@@ -2749,7 +2705,7 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>38</v>
@@ -2761,1444 +2717,14 @@
         <v>37</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" hidden="true">
-      <c r="A21" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" hidden="true">
-      <c r="A22" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" hidden="true">
-      <c r="A23" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" hidden="true">
-      <c r="A24" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F24" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" hidden="true">
-      <c r="A25" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" hidden="true">
-      <c r="A26" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>60</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" hidden="true">
-      <c r="A27" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" hidden="true">
-      <c r="A28" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" hidden="true">
-      <c r="A29" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" hidden="true">
-      <c r="A30" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" hidden="true">
-      <c r="A31" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" hidden="true">
-      <c r="A32" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" hidden="true">
-      <c r="A33" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" hidden="true">
-      <c r="A34" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
         <v>67</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ34">
+  <autoFilter ref="A1:AJ20">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4208,7 +2734,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI33">
+  <conditionalFormatting sqref="A2:AI19">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
